--- a/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_TP.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_TP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="764" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="764"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.0 新特性|Fix Bug'!$A$1:$V$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.0 新特性|Fix Bug'!$A$1:$W$13</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>No</t>
   </si>
@@ -85,6 +85,9 @@
     <t>能否上线</t>
   </si>
   <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
     <t>Bug 禅道ID</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>TP-507</t>
   </si>
   <si>
     <t>renterpc</t>
@@ -274,12 +280,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -354,9 +360,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -369,12 +389,42 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,21 +446,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,54 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,6 +491,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,23 +522,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -571,7 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,31 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,13 +632,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,61 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,26 +768,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -887,6 +900,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -904,7 +932,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,17 +952,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +1000,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -973,206 +1025,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,7 +1396,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1383,7 +1414,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="59" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1429,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1811,10 +1845,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W163"/>
+  <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1834,15 +1868,16 @@
     <col min="16" max="16" width="9.75" style="46" customWidth="1"/>
     <col min="17" max="17" width="14.125" style="46" customWidth="1"/>
     <col min="18" max="18" width="9.75" style="46" customWidth="1"/>
-    <col min="19" max="19" width="12" style="47" customWidth="1"/>
-    <col min="20" max="20" width="17" style="47" customWidth="1"/>
-    <col min="21" max="21" width="14.125" style="47" customWidth="1"/>
-    <col min="22" max="22" width="41.875" style="46" customWidth="1"/>
-    <col min="23" max="23" width="8.875" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="19" max="19" width="9.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="47" customWidth="1"/>
+    <col min="21" max="21" width="17" style="47" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="47" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="46" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="43" customFormat="1" ht="14.25" spans="1:22">
+    <row r="1" s="43" customFormat="1" ht="14.25" spans="1:23">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -1909,34 +1944,37 @@
       <c r="V1" s="48" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" s="44" customFormat="1" ht="18" customHeight="1" spans="1:23">
+      <c r="W1" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" s="44" customFormat="1" ht="18" customHeight="1" spans="1:24">
       <c r="A2" s="49">
         <v>1</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="52">
         <v>42786</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="52">
         <v>42786</v>
@@ -1944,56 +1982,59 @@
       <c r="K2" s="51"/>
       <c r="L2" s="60"/>
       <c r="M2" s="51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="52">
         <v>42786</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="66"/>
+        <v>33</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="66"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="64"/>
       <c r="W2" s="67"/>
-    </row>
-    <row r="3" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="X2" s="68"/>
+    </row>
+    <row r="3" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A3" s="49">
         <v>2</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="52">
         <v>42786</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="52">
         <v>42786</v>
@@ -2001,30 +2042,33 @@
       <c r="K3" s="51"/>
       <c r="L3" s="60"/>
       <c r="M3" s="51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="52">
         <v>42786</v>
       </c>
       <c r="R3" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="67"/>
-    </row>
-    <row r="4" s="44" customFormat="1" ht="16.5" spans="1:23">
+        <v>33</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="66"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="68"/>
+    </row>
+    <row r="4" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -2043,13 +2087,14 @@
       <c r="P4" s="60"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="60"/>
-      <c r="S4" s="57"/>
+      <c r="S4" s="60"/>
       <c r="T4" s="57"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="67"/>
-    </row>
-    <row r="5" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="U4" s="57"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="68"/>
+    </row>
+    <row r="5" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -2068,13 +2113,14 @@
       <c r="P5" s="60"/>
       <c r="Q5" s="52"/>
       <c r="R5" s="60"/>
-      <c r="S5" s="57"/>
+      <c r="S5" s="60"/>
       <c r="T5" s="57"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="67"/>
-    </row>
-    <row r="6" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="U5" s="57"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="68"/>
+    </row>
+    <row r="6" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -2093,13 +2139,14 @@
       <c r="P6" s="60"/>
       <c r="Q6" s="52"/>
       <c r="R6" s="60"/>
-      <c r="S6" s="57"/>
+      <c r="S6" s="60"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="67"/>
-    </row>
-    <row r="7" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="U6" s="57"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="68"/>
+    </row>
+    <row r="7" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -2118,13 +2165,14 @@
       <c r="P7" s="60"/>
       <c r="Q7" s="52"/>
       <c r="R7" s="60"/>
-      <c r="S7" s="57"/>
+      <c r="S7" s="60"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="67"/>
-    </row>
-    <row r="8" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="U7" s="57"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="68"/>
+    </row>
+    <row r="8" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -2143,13 +2191,14 @@
       <c r="P8" s="60"/>
       <c r="Q8" s="52"/>
       <c r="R8" s="60"/>
-      <c r="S8" s="57"/>
+      <c r="S8" s="60"/>
       <c r="T8" s="57"/>
       <c r="U8" s="57"/>
-      <c r="V8" s="68"/>
-      <c r="W8" s="67"/>
-    </row>
-    <row r="9" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="V8" s="57"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="68"/>
+    </row>
+    <row r="9" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -2168,13 +2217,14 @@
       <c r="P9" s="60"/>
       <c r="Q9" s="52"/>
       <c r="R9" s="60"/>
-      <c r="S9" s="57"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="67"/>
-    </row>
-    <row r="10" s="44" customFormat="1" ht="16.5" spans="1:23">
+      <c r="V9" s="57"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="68"/>
+    </row>
+    <row r="10" s="44" customFormat="1" ht="16.5" spans="1:24">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -2193,13 +2243,14 @@
       <c r="P10" s="62"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="62"/>
-      <c r="S10" s="57"/>
+      <c r="S10" s="62"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="67"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:22">
+      <c r="V10" s="57"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="68"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:23">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -2218,12 +2269,13 @@
       <c r="P11" s="60"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="60"/>
-      <c r="S11" s="57"/>
+      <c r="S11" s="60"/>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
-      <c r="V11" s="58"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:22">
+      <c r="V11" s="57"/>
+      <c r="W11" s="58"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:23">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -2242,12 +2294,13 @@
       <c r="P12" s="57"/>
       <c r="Q12" s="52"/>
       <c r="R12" s="60"/>
-      <c r="S12" s="57"/>
+      <c r="S12" s="60"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
-      <c r="V12" s="58"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:22">
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:23">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -2266,12 +2319,13 @@
       <c r="P13" s="64"/>
       <c r="Q13" s="52"/>
       <c r="R13" s="60"/>
-      <c r="S13" s="57"/>
+      <c r="S13" s="60"/>
       <c r="T13" s="57"/>
       <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:22">
+      <c r="V13" s="57"/>
+      <c r="W13" s="58"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:23">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -2290,12 +2344,13 @@
       <c r="P14" s="60"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="60"/>
-      <c r="S14" s="57"/>
+      <c r="S14" s="60"/>
       <c r="T14" s="57"/>
       <c r="U14" s="57"/>
-      <c r="V14" s="68"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:22">
+      <c r="V14" s="57"/>
+      <c r="W14" s="69"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:23">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -2314,12 +2369,13 @@
       <c r="P15" s="60"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="60"/>
-      <c r="S15" s="57"/>
+      <c r="S15" s="60"/>
       <c r="T15" s="57"/>
       <c r="U15" s="57"/>
-      <c r="V15" s="68"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:22">
+      <c r="V15" s="57"/>
+      <c r="W15" s="69"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:23">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -2338,12 +2394,13 @@
       <c r="P16" s="60"/>
       <c r="Q16" s="52"/>
       <c r="R16" s="60"/>
-      <c r="S16" s="57"/>
+      <c r="S16" s="60"/>
       <c r="T16" s="57"/>
       <c r="U16" s="57"/>
-      <c r="V16" s="68"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:22">
+      <c r="V16" s="57"/>
+      <c r="W16" s="69"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:23">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -2362,12 +2419,13 @@
       <c r="P17" s="60"/>
       <c r="Q17" s="52"/>
       <c r="R17" s="60"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="71"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:22">
+      <c r="S17" s="71"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="73"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:23">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -2386,12 +2444,13 @@
       <c r="P18" s="60"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="60"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="71"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:22">
+      <c r="S18" s="60"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="73"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:23">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -2410,12 +2469,13 @@
       <c r="P19" s="60"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="60"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="71"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:22">
+      <c r="S19" s="60"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="73"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:23">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -2434,12 +2494,13 @@
       <c r="P20" s="60"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="60"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="71"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:22">
+      <c r="S20" s="60"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="73"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:23">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -2458,12 +2519,13 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="52"/>
       <c r="R21" s="60"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="71"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:22">
+      <c r="S21" s="60"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="73"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:23">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -2482,12 +2544,13 @@
       <c r="P22" s="60"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="60"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="60"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:22">
+      <c r="S22" s="71"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="60"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:23">
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -2506,12 +2569,13 @@
       <c r="P23" s="60"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="60"/>
-      <c r="S23" s="57"/>
+      <c r="S23" s="60"/>
       <c r="T23" s="57"/>
       <c r="U23" s="57"/>
-      <c r="V23" s="68"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:22">
+      <c r="V23" s="57"/>
+      <c r="W23" s="69"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:23">
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -2530,12 +2594,13 @@
       <c r="P24" s="60"/>
       <c r="Q24" s="52"/>
       <c r="R24" s="60"/>
-      <c r="S24" s="57"/>
+      <c r="S24" s="60"/>
       <c r="T24" s="57"/>
       <c r="U24" s="57"/>
-      <c r="V24" s="68"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:22">
+      <c r="V24" s="57"/>
+      <c r="W24" s="69"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:23">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -2554,12 +2619,13 @@
       <c r="P25" s="60"/>
       <c r="Q25" s="52"/>
       <c r="R25" s="60"/>
-      <c r="S25" s="57"/>
+      <c r="S25" s="60"/>
       <c r="T25" s="57"/>
       <c r="U25" s="57"/>
-      <c r="V25" s="68"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:22">
+      <c r="V25" s="57"/>
+      <c r="W25" s="69"/>
+    </row>
+    <row r="26" ht="16.5" spans="1:23">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -2578,12 +2644,13 @@
       <c r="P26" s="60"/>
       <c r="Q26" s="52"/>
       <c r="R26" s="60"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="71"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:22">
+      <c r="S26" s="60"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="73"/>
+    </row>
+    <row r="27" ht="16.5" spans="1:23">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -2602,12 +2669,13 @@
       <c r="P27" s="60"/>
       <c r="Q27" s="52"/>
       <c r="R27" s="60"/>
-      <c r="S27" s="57"/>
+      <c r="S27" s="60"/>
       <c r="T27" s="57"/>
       <c r="U27" s="57"/>
-      <c r="V27" s="66"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:22">
+      <c r="V27" s="57"/>
+      <c r="W27" s="67"/>
+    </row>
+    <row r="28" ht="16.5" spans="1:23">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -2626,12 +2694,13 @@
       <c r="P28" s="60"/>
       <c r="Q28" s="52"/>
       <c r="R28" s="60"/>
-      <c r="S28" s="57"/>
+      <c r="S28" s="60"/>
       <c r="T28" s="57"/>
       <c r="U28" s="57"/>
-      <c r="V28" s="68"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:22">
+      <c r="V28" s="57"/>
+      <c r="W28" s="69"/>
+    </row>
+    <row r="29" ht="16.5" spans="1:23">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -2650,12 +2719,13 @@
       <c r="P29" s="60"/>
       <c r="Q29" s="52"/>
       <c r="R29" s="60"/>
-      <c r="S29" s="57"/>
+      <c r="S29" s="60"/>
       <c r="T29" s="57"/>
       <c r="U29" s="57"/>
-      <c r="V29" s="68"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:22">
+      <c r="V29" s="57"/>
+      <c r="W29" s="69"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:23">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
@@ -2674,12 +2744,13 @@
       <c r="P30" s="60"/>
       <c r="Q30" s="52"/>
       <c r="R30" s="60"/>
-      <c r="S30" s="57"/>
+      <c r="S30" s="60"/>
       <c r="T30" s="57"/>
       <c r="U30" s="57"/>
-      <c r="V30" s="68"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:22">
+      <c r="V30" s="57"/>
+      <c r="W30" s="69"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:23">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -2698,12 +2769,13 @@
       <c r="P31" s="60"/>
       <c r="Q31" s="52"/>
       <c r="R31" s="60"/>
-      <c r="S31" s="57"/>
+      <c r="S31" s="60"/>
       <c r="T31" s="57"/>
       <c r="U31" s="57"/>
-      <c r="V31" s="68"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:22">
+      <c r="V31" s="57"/>
+      <c r="W31" s="69"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:23">
       <c r="A32" s="49"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -2722,12 +2794,13 @@
       <c r="P32" s="60"/>
       <c r="Q32" s="52"/>
       <c r="R32" s="60"/>
-      <c r="S32" s="57"/>
+      <c r="S32" s="60"/>
       <c r="T32" s="57"/>
       <c r="U32" s="57"/>
-      <c r="V32" s="68"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:22">
+      <c r="V32" s="57"/>
+      <c r="W32" s="69"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:23">
       <c r="A33" s="49"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -2746,12 +2819,13 @@
       <c r="P33" s="60"/>
       <c r="Q33" s="52"/>
       <c r="R33" s="60"/>
-      <c r="S33" s="57"/>
+      <c r="S33" s="60"/>
       <c r="T33" s="57"/>
       <c r="U33" s="57"/>
-      <c r="V33" s="68"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:22">
+      <c r="V33" s="57"/>
+      <c r="W33" s="69"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:23">
       <c r="A34" s="49"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
@@ -2770,12 +2844,13 @@
       <c r="P34" s="60"/>
       <c r="Q34" s="52"/>
       <c r="R34" s="60"/>
-      <c r="S34" s="57"/>
+      <c r="S34" s="60"/>
       <c r="T34" s="57"/>
       <c r="U34" s="57"/>
-      <c r="V34" s="68"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:22">
+      <c r="V34" s="57"/>
+      <c r="W34" s="69"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:23">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -2794,12 +2869,13 @@
       <c r="P35" s="60"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="60"/>
-      <c r="S35" s="57"/>
+      <c r="S35" s="60"/>
       <c r="T35" s="57"/>
       <c r="U35" s="57"/>
-      <c r="V35" s="68"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:22">
+      <c r="V35" s="57"/>
+      <c r="W35" s="69"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:23">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -2818,12 +2894,13 @@
       <c r="P36" s="60"/>
       <c r="Q36" s="52"/>
       <c r="R36" s="60"/>
-      <c r="S36" s="57"/>
+      <c r="S36" s="60"/>
       <c r="T36" s="57"/>
       <c r="U36" s="57"/>
-      <c r="V36" s="68"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:22">
+      <c r="V36" s="57"/>
+      <c r="W36" s="69"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:23">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -2842,12 +2919,13 @@
       <c r="P37" s="60"/>
       <c r="Q37" s="52"/>
       <c r="R37" s="60"/>
-      <c r="S37" s="57"/>
+      <c r="S37" s="60"/>
       <c r="T37" s="57"/>
       <c r="U37" s="57"/>
-      <c r="V37" s="68"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:22">
+      <c r="V37" s="57"/>
+      <c r="W37" s="69"/>
+    </row>
+    <row r="38" ht="16.5" spans="1:23">
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
@@ -2866,12 +2944,13 @@
       <c r="P38" s="60"/>
       <c r="Q38" s="52"/>
       <c r="R38" s="60"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="68"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:22">
+      <c r="S38" s="71"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="69"/>
+    </row>
+    <row r="39" ht="16.5" spans="1:23">
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
@@ -2890,12 +2969,13 @@
       <c r="P39" s="60"/>
       <c r="Q39" s="52"/>
       <c r="R39" s="60"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="68"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:22">
+      <c r="S39" s="71"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="69"/>
+    </row>
+    <row r="40" ht="16.5" spans="1:23">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
@@ -2914,12 +2994,13 @@
       <c r="P40" s="60"/>
       <c r="Q40" s="52"/>
       <c r="R40" s="60"/>
-      <c r="S40" s="57"/>
+      <c r="S40" s="60"/>
       <c r="T40" s="57"/>
       <c r="U40" s="57"/>
-      <c r="V40" s="58"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:22">
+      <c r="V40" s="57"/>
+      <c r="W40" s="58"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:23">
       <c r="A41" s="49"/>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -2938,12 +3019,13 @@
       <c r="P41" s="60"/>
       <c r="Q41" s="52"/>
       <c r="R41" s="60"/>
-      <c r="S41" s="57"/>
+      <c r="S41" s="60"/>
       <c r="T41" s="57"/>
       <c r="U41" s="57"/>
-      <c r="V41" s="58"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:22">
+      <c r="V41" s="57"/>
+      <c r="W41" s="58"/>
+    </row>
+    <row r="42" ht="16.5" spans="1:23">
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
@@ -2962,12 +3044,13 @@
       <c r="P42" s="60"/>
       <c r="Q42" s="52"/>
       <c r="R42" s="60"/>
-      <c r="S42" s="57"/>
+      <c r="S42" s="60"/>
       <c r="T42" s="57"/>
       <c r="U42" s="57"/>
-      <c r="V42" s="58"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:22">
+      <c r="V42" s="57"/>
+      <c r="W42" s="58"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:23">
       <c r="A43" s="49"/>
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
@@ -2986,12 +3069,13 @@
       <c r="P43" s="60"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="60"/>
-      <c r="S43" s="57"/>
+      <c r="S43" s="60"/>
       <c r="T43" s="57"/>
       <c r="U43" s="57"/>
-      <c r="V43" s="58"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:22">
+      <c r="V43" s="57"/>
+      <c r="W43" s="58"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:23">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
@@ -3010,12 +3094,13 @@
       <c r="P44" s="60"/>
       <c r="Q44" s="52"/>
       <c r="R44" s="60"/>
-      <c r="S44" s="57"/>
+      <c r="S44" s="60"/>
       <c r="T44" s="57"/>
       <c r="U44" s="57"/>
-      <c r="V44" s="58"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:22">
+      <c r="V44" s="57"/>
+      <c r="W44" s="58"/>
+    </row>
+    <row r="45" ht="16.5" spans="1:23">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
@@ -3034,12 +3119,13 @@
       <c r="P45" s="60"/>
       <c r="Q45" s="52"/>
       <c r="R45" s="60"/>
-      <c r="S45" s="57"/>
+      <c r="S45" s="60"/>
       <c r="T45" s="57"/>
       <c r="U45" s="57"/>
-      <c r="V45" s="58"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:22">
+      <c r="V45" s="57"/>
+      <c r="W45" s="58"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:23">
       <c r="A46" s="49"/>
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
@@ -3058,12 +3144,13 @@
       <c r="P46" s="60"/>
       <c r="Q46" s="52"/>
       <c r="R46" s="60"/>
-      <c r="S46" s="57"/>
+      <c r="S46" s="60"/>
       <c r="T46" s="57"/>
       <c r="U46" s="57"/>
-      <c r="V46" s="58"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:22">
+      <c r="V46" s="57"/>
+      <c r="W46" s="58"/>
+    </row>
+    <row r="47" ht="16.5" spans="1:23">
       <c r="A47" s="57"/>
       <c r="B47" s="57"/>
       <c r="C47" s="57"/>
@@ -3082,12 +3169,13 @@
       <c r="P47" s="57"/>
       <c r="Q47" s="59"/>
       <c r="R47" s="58"/>
-      <c r="S47" s="57"/>
+      <c r="S47" s="58"/>
       <c r="T47" s="57"/>
       <c r="U47" s="57"/>
-      <c r="V47" s="58"/>
-    </row>
-    <row r="48" ht="16.5" spans="1:22">
+      <c r="V47" s="57"/>
+      <c r="W47" s="58"/>
+    </row>
+    <row r="48" ht="16.5" spans="1:23">
       <c r="A48" s="57"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
@@ -3106,12 +3194,13 @@
       <c r="P48" s="57"/>
       <c r="Q48" s="59"/>
       <c r="R48" s="58"/>
-      <c r="S48" s="57"/>
+      <c r="S48" s="58"/>
       <c r="T48" s="57"/>
       <c r="U48" s="57"/>
-      <c r="V48" s="58"/>
-    </row>
-    <row r="49" ht="16.5" spans="1:22">
+      <c r="V48" s="57"/>
+      <c r="W48" s="58"/>
+    </row>
+    <row r="49" ht="16.5" spans="1:23">
       <c r="A49" s="57"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57"/>
@@ -3130,12 +3219,13 @@
       <c r="P49" s="57"/>
       <c r="Q49" s="59"/>
       <c r="R49" s="58"/>
-      <c r="S49" s="57"/>
+      <c r="S49" s="58"/>
       <c r="T49" s="57"/>
       <c r="U49" s="57"/>
-      <c r="V49" s="58"/>
-    </row>
-    <row r="50" ht="16.5" spans="1:22">
+      <c r="V49" s="57"/>
+      <c r="W49" s="58"/>
+    </row>
+    <row r="50" ht="16.5" spans="1:23">
       <c r="A50" s="57"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
@@ -3154,12 +3244,13 @@
       <c r="P50" s="57"/>
       <c r="Q50" s="59"/>
       <c r="R50" s="58"/>
-      <c r="S50" s="57"/>
+      <c r="S50" s="58"/>
       <c r="T50" s="57"/>
       <c r="U50" s="57"/>
-      <c r="V50" s="58"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:22">
+      <c r="V50" s="57"/>
+      <c r="W50" s="58"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:23">
       <c r="A51" s="57"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
@@ -3178,12 +3269,13 @@
       <c r="P51" s="57"/>
       <c r="Q51" s="59"/>
       <c r="R51" s="58"/>
-      <c r="S51" s="57"/>
+      <c r="S51" s="58"/>
       <c r="T51" s="57"/>
       <c r="U51" s="57"/>
-      <c r="V51" s="58"/>
-    </row>
-    <row r="52" ht="16.5" spans="1:22">
+      <c r="V51" s="57"/>
+      <c r="W51" s="58"/>
+    </row>
+    <row r="52" ht="16.5" spans="1:23">
       <c r="A52" s="57"/>
       <c r="B52" s="57"/>
       <c r="C52" s="57"/>
@@ -3202,12 +3294,13 @@
       <c r="P52" s="57"/>
       <c r="Q52" s="59"/>
       <c r="R52" s="58"/>
-      <c r="S52" s="57"/>
+      <c r="S52" s="58"/>
       <c r="T52" s="57"/>
       <c r="U52" s="57"/>
-      <c r="V52" s="58"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:22">
+      <c r="V52" s="57"/>
+      <c r="W52" s="58"/>
+    </row>
+    <row r="53" ht="16.5" spans="1:23">
       <c r="A53" s="57"/>
       <c r="B53" s="57"/>
       <c r="C53" s="57"/>
@@ -3226,12 +3319,13 @@
       <c r="P53" s="57"/>
       <c r="Q53" s="59"/>
       <c r="R53" s="58"/>
-      <c r="S53" s="57"/>
+      <c r="S53" s="58"/>
       <c r="T53" s="57"/>
       <c r="U53" s="57"/>
-      <c r="V53" s="58"/>
-    </row>
-    <row r="54" ht="16.5" spans="1:22">
+      <c r="V53" s="57"/>
+      <c r="W53" s="58"/>
+    </row>
+    <row r="54" ht="16.5" spans="1:23">
       <c r="A54" s="57"/>
       <c r="B54" s="57"/>
       <c r="C54" s="57"/>
@@ -3250,12 +3344,13 @@
       <c r="P54" s="57"/>
       <c r="Q54" s="59"/>
       <c r="R54" s="58"/>
-      <c r="S54" s="57"/>
+      <c r="S54" s="58"/>
       <c r="T54" s="57"/>
       <c r="U54" s="57"/>
-      <c r="V54" s="58"/>
-    </row>
-    <row r="55" ht="16.5" spans="1:22">
+      <c r="V54" s="57"/>
+      <c r="W54" s="58"/>
+    </row>
+    <row r="55" ht="16.5" spans="1:23">
       <c r="A55" s="57"/>
       <c r="B55" s="57"/>
       <c r="C55" s="57"/>
@@ -3274,12 +3369,13 @@
       <c r="P55" s="57"/>
       <c r="Q55" s="59"/>
       <c r="R55" s="58"/>
-      <c r="S55" s="57"/>
+      <c r="S55" s="58"/>
       <c r="T55" s="57"/>
       <c r="U55" s="57"/>
-      <c r="V55" s="58"/>
-    </row>
-    <row r="56" ht="16.5" spans="1:22">
+      <c r="V55" s="57"/>
+      <c r="W55" s="58"/>
+    </row>
+    <row r="56" ht="16.5" spans="1:23">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -3298,12 +3394,13 @@
       <c r="P56" s="57"/>
       <c r="Q56" s="59"/>
       <c r="R56" s="58"/>
-      <c r="S56" s="57"/>
+      <c r="S56" s="58"/>
       <c r="T56" s="57"/>
       <c r="U56" s="57"/>
-      <c r="V56" s="58"/>
-    </row>
-    <row r="57" ht="16.5" spans="1:22">
+      <c r="V56" s="57"/>
+      <c r="W56" s="58"/>
+    </row>
+    <row r="57" ht="16.5" spans="1:23">
       <c r="A57" s="57"/>
       <c r="B57" s="57"/>
       <c r="C57" s="57"/>
@@ -3322,12 +3419,13 @@
       <c r="P57" s="57"/>
       <c r="Q57" s="59"/>
       <c r="R57" s="58"/>
-      <c r="S57" s="57"/>
+      <c r="S57" s="58"/>
       <c r="T57" s="57"/>
       <c r="U57" s="57"/>
-      <c r="V57" s="58"/>
-    </row>
-    <row r="58" ht="16.5" spans="1:22">
+      <c r="V57" s="57"/>
+      <c r="W57" s="58"/>
+    </row>
+    <row r="58" ht="16.5" spans="1:23">
       <c r="A58" s="57"/>
       <c r="B58" s="57"/>
       <c r="C58" s="57"/>
@@ -3346,12 +3444,13 @@
       <c r="P58" s="57"/>
       <c r="Q58" s="59"/>
       <c r="R58" s="58"/>
-      <c r="S58" s="57"/>
+      <c r="S58" s="58"/>
       <c r="T58" s="57"/>
       <c r="U58" s="57"/>
-      <c r="V58" s="58"/>
-    </row>
-    <row r="59" ht="16.5" spans="1:22">
+      <c r="V58" s="57"/>
+      <c r="W58" s="58"/>
+    </row>
+    <row r="59" ht="16.5" spans="1:23">
       <c r="A59" s="57"/>
       <c r="B59" s="57"/>
       <c r="C59" s="57"/>
@@ -3370,12 +3469,13 @@
       <c r="P59" s="57"/>
       <c r="Q59" s="59"/>
       <c r="R59" s="58"/>
-      <c r="S59" s="57"/>
+      <c r="S59" s="58"/>
       <c r="T59" s="57"/>
       <c r="U59" s="57"/>
-      <c r="V59" s="58"/>
-    </row>
-    <row r="60" ht="16.5" spans="1:22">
+      <c r="V59" s="57"/>
+      <c r="W59" s="58"/>
+    </row>
+    <row r="60" ht="16.5" spans="1:23">
       <c r="A60" s="57"/>
       <c r="B60" s="57"/>
       <c r="C60" s="57"/>
@@ -3394,12 +3494,13 @@
       <c r="P60" s="57"/>
       <c r="Q60" s="59"/>
       <c r="R60" s="58"/>
-      <c r="S60" s="57"/>
+      <c r="S60" s="58"/>
       <c r="T60" s="57"/>
       <c r="U60" s="57"/>
-      <c r="V60" s="58"/>
-    </row>
-    <row r="61" ht="16.5" spans="1:22">
+      <c r="V60" s="57"/>
+      <c r="W60" s="58"/>
+    </row>
+    <row r="61" ht="16.5" spans="1:23">
       <c r="A61" s="57"/>
       <c r="B61" s="57"/>
       <c r="C61" s="57"/>
@@ -3418,12 +3519,13 @@
       <c r="P61" s="57"/>
       <c r="Q61" s="59"/>
       <c r="R61" s="58"/>
-      <c r="S61" s="57"/>
+      <c r="S61" s="58"/>
       <c r="T61" s="57"/>
       <c r="U61" s="57"/>
-      <c r="V61" s="58"/>
-    </row>
-    <row r="62" ht="16.5" spans="1:22">
+      <c r="V61" s="57"/>
+      <c r="W61" s="58"/>
+    </row>
+    <row r="62" ht="16.5" spans="1:23">
       <c r="A62" s="57"/>
       <c r="B62" s="57"/>
       <c r="C62" s="57"/>
@@ -3442,12 +3544,13 @@
       <c r="P62" s="57"/>
       <c r="Q62" s="59"/>
       <c r="R62" s="58"/>
-      <c r="S62" s="57"/>
+      <c r="S62" s="58"/>
       <c r="T62" s="57"/>
       <c r="U62" s="57"/>
-      <c r="V62" s="58"/>
-    </row>
-    <row r="63" ht="16.5" spans="1:22">
+      <c r="V62" s="57"/>
+      <c r="W62" s="58"/>
+    </row>
+    <row r="63" ht="16.5" spans="1:23">
       <c r="A63" s="57"/>
       <c r="B63" s="57"/>
       <c r="C63" s="57"/>
@@ -3466,12 +3569,13 @@
       <c r="P63" s="57"/>
       <c r="Q63" s="59"/>
       <c r="R63" s="58"/>
-      <c r="S63" s="57"/>
+      <c r="S63" s="58"/>
       <c r="T63" s="57"/>
       <c r="U63" s="57"/>
-      <c r="V63" s="58"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:22">
+      <c r="V63" s="57"/>
+      <c r="W63" s="58"/>
+    </row>
+    <row r="64" ht="16.5" spans="1:23">
       <c r="A64" s="57"/>
       <c r="B64" s="57"/>
       <c r="C64" s="57"/>
@@ -3490,12 +3594,13 @@
       <c r="P64" s="57"/>
       <c r="Q64" s="59"/>
       <c r="R64" s="58"/>
-      <c r="S64" s="57"/>
+      <c r="S64" s="58"/>
       <c r="T64" s="57"/>
       <c r="U64" s="57"/>
-      <c r="V64" s="58"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:22">
+      <c r="V64" s="57"/>
+      <c r="W64" s="58"/>
+    </row>
+    <row r="65" ht="16.5" spans="1:23">
       <c r="A65" s="57"/>
       <c r="B65" s="57"/>
       <c r="C65" s="57"/>
@@ -3514,12 +3619,13 @@
       <c r="P65" s="57"/>
       <c r="Q65" s="59"/>
       <c r="R65" s="58"/>
-      <c r="S65" s="57"/>
+      <c r="S65" s="58"/>
       <c r="T65" s="57"/>
       <c r="U65" s="57"/>
-      <c r="V65" s="58"/>
-    </row>
-    <row r="66" ht="16.5" spans="1:22">
+      <c r="V65" s="57"/>
+      <c r="W65" s="58"/>
+    </row>
+    <row r="66" ht="16.5" spans="1:23">
       <c r="A66" s="57"/>
       <c r="B66" s="57"/>
       <c r="C66" s="57"/>
@@ -3538,12 +3644,13 @@
       <c r="P66" s="57"/>
       <c r="Q66" s="59"/>
       <c r="R66" s="58"/>
-      <c r="S66" s="57"/>
+      <c r="S66" s="58"/>
       <c r="T66" s="57"/>
       <c r="U66" s="57"/>
-      <c r="V66" s="58"/>
-    </row>
-    <row r="67" ht="16.5" spans="1:22">
+      <c r="V66" s="57"/>
+      <c r="W66" s="58"/>
+    </row>
+    <row r="67" ht="16.5" spans="1:23">
       <c r="A67" s="57"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
@@ -3562,12 +3669,13 @@
       <c r="P67" s="57"/>
       <c r="Q67" s="59"/>
       <c r="R67" s="58"/>
-      <c r="S67" s="57"/>
+      <c r="S67" s="58"/>
       <c r="T67" s="57"/>
       <c r="U67" s="57"/>
-      <c r="V67" s="58"/>
-    </row>
-    <row r="68" ht="16.5" spans="1:22">
+      <c r="V67" s="57"/>
+      <c r="W67" s="58"/>
+    </row>
+    <row r="68" ht="16.5" spans="1:23">
       <c r="A68" s="57"/>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -3586,12 +3694,13 @@
       <c r="P68" s="57"/>
       <c r="Q68" s="59"/>
       <c r="R68" s="58"/>
-      <c r="S68" s="57"/>
+      <c r="S68" s="58"/>
       <c r="T68" s="57"/>
       <c r="U68" s="57"/>
-      <c r="V68" s="58"/>
-    </row>
-    <row r="69" ht="16.5" spans="1:22">
+      <c r="V68" s="57"/>
+      <c r="W68" s="58"/>
+    </row>
+    <row r="69" ht="16.5" spans="1:23">
       <c r="A69" s="57"/>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
@@ -3610,12 +3719,13 @@
       <c r="P69" s="57"/>
       <c r="Q69" s="59"/>
       <c r="R69" s="58"/>
-      <c r="S69" s="57"/>
+      <c r="S69" s="58"/>
       <c r="T69" s="57"/>
       <c r="U69" s="57"/>
-      <c r="V69" s="58"/>
-    </row>
-    <row r="70" ht="16.5" spans="1:22">
+      <c r="V69" s="57"/>
+      <c r="W69" s="58"/>
+    </row>
+    <row r="70" ht="16.5" spans="1:23">
       <c r="A70" s="57"/>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -3634,12 +3744,13 @@
       <c r="P70" s="57"/>
       <c r="Q70" s="59"/>
       <c r="R70" s="58"/>
-      <c r="S70" s="57"/>
+      <c r="S70" s="58"/>
       <c r="T70" s="57"/>
       <c r="U70" s="57"/>
-      <c r="V70" s="58"/>
-    </row>
-    <row r="71" ht="16.5" spans="1:22">
+      <c r="V70" s="57"/>
+      <c r="W70" s="58"/>
+    </row>
+    <row r="71" ht="16.5" spans="1:23">
       <c r="A71" s="57"/>
       <c r="B71" s="57"/>
       <c r="C71" s="57"/>
@@ -3658,12 +3769,13 @@
       <c r="P71" s="57"/>
       <c r="Q71" s="59"/>
       <c r="R71" s="58"/>
-      <c r="S71" s="57"/>
+      <c r="S71" s="58"/>
       <c r="T71" s="57"/>
       <c r="U71" s="57"/>
-      <c r="V71" s="58"/>
-    </row>
-    <row r="72" ht="16.5" spans="1:22">
+      <c r="V71" s="57"/>
+      <c r="W71" s="58"/>
+    </row>
+    <row r="72" ht="16.5" spans="1:23">
       <c r="A72" s="57"/>
       <c r="B72" s="57"/>
       <c r="C72" s="57"/>
@@ -3682,12 +3794,13 @@
       <c r="P72" s="57"/>
       <c r="Q72" s="59"/>
       <c r="R72" s="58"/>
-      <c r="S72" s="57"/>
+      <c r="S72" s="58"/>
       <c r="T72" s="57"/>
       <c r="U72" s="57"/>
-      <c r="V72" s="58"/>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="V72" s="57"/>
+      <c r="W72" s="58"/>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="57"/>
       <c r="B73" s="57"/>
       <c r="C73" s="57"/>
@@ -3706,12 +3819,13 @@
       <c r="P73" s="57"/>
       <c r="Q73" s="59"/>
       <c r="R73" s="58"/>
-      <c r="S73" s="57"/>
+      <c r="S73" s="58"/>
       <c r="T73" s="57"/>
       <c r="U73" s="57"/>
-      <c r="V73" s="58"/>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="V73" s="57"/>
+      <c r="W73" s="58"/>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="57"/>
       <c r="B74" s="57"/>
       <c r="C74" s="57"/>
@@ -3730,12 +3844,13 @@
       <c r="P74" s="57"/>
       <c r="Q74" s="59"/>
       <c r="R74" s="58"/>
-      <c r="S74" s="57"/>
+      <c r="S74" s="58"/>
       <c r="T74" s="57"/>
       <c r="U74" s="57"/>
-      <c r="V74" s="58"/>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="V74" s="57"/>
+      <c r="W74" s="58"/>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="57"/>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
@@ -3754,12 +3869,13 @@
       <c r="P75" s="57"/>
       <c r="Q75" s="59"/>
       <c r="R75" s="58"/>
-      <c r="S75" s="57"/>
+      <c r="S75" s="58"/>
       <c r="T75" s="57"/>
       <c r="U75" s="57"/>
-      <c r="V75" s="58"/>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="V75" s="57"/>
+      <c r="W75" s="58"/>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="57"/>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -3778,12 +3894,13 @@
       <c r="P76" s="57"/>
       <c r="Q76" s="59"/>
       <c r="R76" s="58"/>
-      <c r="S76" s="57"/>
+      <c r="S76" s="58"/>
       <c r="T76" s="57"/>
       <c r="U76" s="57"/>
-      <c r="V76" s="58"/>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="V76" s="57"/>
+      <c r="W76" s="58"/>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="57"/>
       <c r="B77" s="57"/>
       <c r="C77" s="57"/>
@@ -3802,12 +3919,13 @@
       <c r="P77" s="57"/>
       <c r="Q77" s="59"/>
       <c r="R77" s="58"/>
-      <c r="S77" s="57"/>
+      <c r="S77" s="58"/>
       <c r="T77" s="57"/>
       <c r="U77" s="57"/>
-      <c r="V77" s="58"/>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="V77" s="57"/>
+      <c r="W77" s="58"/>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -3826,12 +3944,13 @@
       <c r="P78" s="57"/>
       <c r="Q78" s="59"/>
       <c r="R78" s="58"/>
-      <c r="S78" s="57"/>
+      <c r="S78" s="58"/>
       <c r="T78" s="57"/>
       <c r="U78" s="57"/>
-      <c r="V78" s="58"/>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="V78" s="57"/>
+      <c r="W78" s="58"/>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="57"/>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
@@ -3850,12 +3969,13 @@
       <c r="P79" s="57"/>
       <c r="Q79" s="59"/>
       <c r="R79" s="58"/>
-      <c r="S79" s="57"/>
+      <c r="S79" s="58"/>
       <c r="T79" s="57"/>
       <c r="U79" s="57"/>
-      <c r="V79" s="58"/>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="V79" s="57"/>
+      <c r="W79" s="58"/>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="57"/>
       <c r="B80" s="57"/>
       <c r="C80" s="57"/>
@@ -3874,12 +3994,13 @@
       <c r="P80" s="57"/>
       <c r="Q80" s="59"/>
       <c r="R80" s="58"/>
-      <c r="S80" s="57"/>
+      <c r="S80" s="58"/>
       <c r="T80" s="57"/>
       <c r="U80" s="57"/>
-      <c r="V80" s="58"/>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="V80" s="57"/>
+      <c r="W80" s="58"/>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="57"/>
       <c r="B81" s="57"/>
       <c r="C81" s="57"/>
@@ -3898,12 +4019,13 @@
       <c r="P81" s="57"/>
       <c r="Q81" s="59"/>
       <c r="R81" s="58"/>
-      <c r="S81" s="57"/>
+      <c r="S81" s="58"/>
       <c r="T81" s="57"/>
       <c r="U81" s="57"/>
-      <c r="V81" s="58"/>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="V81" s="57"/>
+      <c r="W81" s="58"/>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="57"/>
       <c r="B82" s="57"/>
       <c r="C82" s="57"/>
@@ -3922,12 +4044,13 @@
       <c r="P82" s="57"/>
       <c r="Q82" s="59"/>
       <c r="R82" s="58"/>
-      <c r="S82" s="57"/>
+      <c r="S82" s="58"/>
       <c r="T82" s="57"/>
       <c r="U82" s="57"/>
-      <c r="V82" s="58"/>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="V82" s="57"/>
+      <c r="W82" s="58"/>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="57"/>
       <c r="B83" s="57"/>
       <c r="C83" s="57"/>
@@ -3946,12 +4069,13 @@
       <c r="P83" s="57"/>
       <c r="Q83" s="59"/>
       <c r="R83" s="58"/>
-      <c r="S83" s="57"/>
+      <c r="S83" s="58"/>
       <c r="T83" s="57"/>
       <c r="U83" s="57"/>
-      <c r="V83" s="58"/>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="V83" s="57"/>
+      <c r="W83" s="58"/>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="57"/>
       <c r="B84" s="57"/>
       <c r="C84" s="57"/>
@@ -3970,12 +4094,13 @@
       <c r="P84" s="57"/>
       <c r="Q84" s="59"/>
       <c r="R84" s="58"/>
-      <c r="S84" s="57"/>
+      <c r="S84" s="58"/>
       <c r="T84" s="57"/>
       <c r="U84" s="57"/>
-      <c r="V84" s="58"/>
-    </row>
-    <row r="85" spans="1:22">
+      <c r="V84" s="57"/>
+      <c r="W84" s="58"/>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="57"/>
@@ -3994,12 +4119,13 @@
       <c r="P85" s="57"/>
       <c r="Q85" s="59"/>
       <c r="R85" s="58"/>
-      <c r="S85" s="57"/>
+      <c r="S85" s="58"/>
       <c r="T85" s="57"/>
       <c r="U85" s="57"/>
-      <c r="V85" s="58"/>
-    </row>
-    <row r="86" spans="1:22">
+      <c r="V85" s="57"/>
+      <c r="W85" s="58"/>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="57"/>
@@ -4018,12 +4144,13 @@
       <c r="P86" s="57"/>
       <c r="Q86" s="59"/>
       <c r="R86" s="58"/>
-      <c r="S86" s="57"/>
+      <c r="S86" s="58"/>
       <c r="T86" s="57"/>
       <c r="U86" s="57"/>
-      <c r="V86" s="58"/>
-    </row>
-    <row r="87" spans="1:22">
+      <c r="V86" s="57"/>
+      <c r="W86" s="58"/>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57"/>
@@ -4042,12 +4169,13 @@
       <c r="P87" s="57"/>
       <c r="Q87" s="59"/>
       <c r="R87" s="58"/>
-      <c r="S87" s="57"/>
+      <c r="S87" s="58"/>
       <c r="T87" s="57"/>
       <c r="U87" s="57"/>
-      <c r="V87" s="58"/>
-    </row>
-    <row r="88" spans="1:22">
+      <c r="V87" s="57"/>
+      <c r="W87" s="58"/>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="57"/>
@@ -4066,12 +4194,13 @@
       <c r="P88" s="57"/>
       <c r="Q88" s="59"/>
       <c r="R88" s="58"/>
-      <c r="S88" s="57"/>
+      <c r="S88" s="58"/>
       <c r="T88" s="57"/>
       <c r="U88" s="57"/>
-      <c r="V88" s="58"/>
-    </row>
-    <row r="89" spans="1:22">
+      <c r="V88" s="57"/>
+      <c r="W88" s="58"/>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="57"/>
@@ -4090,12 +4219,13 @@
       <c r="P89" s="57"/>
       <c r="Q89" s="59"/>
       <c r="R89" s="58"/>
-      <c r="S89" s="57"/>
+      <c r="S89" s="58"/>
       <c r="T89" s="57"/>
       <c r="U89" s="57"/>
-      <c r="V89" s="58"/>
-    </row>
-    <row r="90" spans="1:22">
+      <c r="V89" s="57"/>
+      <c r="W89" s="58"/>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="57"/>
@@ -4114,12 +4244,13 @@
       <c r="P90" s="57"/>
       <c r="Q90" s="59"/>
       <c r="R90" s="58"/>
-      <c r="S90" s="57"/>
+      <c r="S90" s="58"/>
       <c r="T90" s="57"/>
       <c r="U90" s="57"/>
-      <c r="V90" s="58"/>
-    </row>
-    <row r="91" spans="1:22">
+      <c r="V90" s="57"/>
+      <c r="W90" s="58"/>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="57"/>
@@ -4138,12 +4269,13 @@
       <c r="P91" s="57"/>
       <c r="Q91" s="59"/>
       <c r="R91" s="58"/>
-      <c r="S91" s="57"/>
+      <c r="S91" s="58"/>
       <c r="T91" s="57"/>
       <c r="U91" s="57"/>
-      <c r="V91" s="58"/>
-    </row>
-    <row r="92" spans="1:22">
+      <c r="V91" s="57"/>
+      <c r="W91" s="58"/>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="57"/>
@@ -4162,12 +4294,13 @@
       <c r="P92" s="57"/>
       <c r="Q92" s="59"/>
       <c r="R92" s="58"/>
-      <c r="S92" s="57"/>
+      <c r="S92" s="58"/>
       <c r="T92" s="57"/>
       <c r="U92" s="57"/>
-      <c r="V92" s="58"/>
-    </row>
-    <row r="93" spans="1:22">
+      <c r="V92" s="57"/>
+      <c r="W92" s="58"/>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -4186,12 +4319,13 @@
       <c r="P93" s="57"/>
       <c r="Q93" s="59"/>
       <c r="R93" s="58"/>
-      <c r="S93" s="57"/>
+      <c r="S93" s="58"/>
       <c r="T93" s="57"/>
       <c r="U93" s="57"/>
-      <c r="V93" s="58"/>
-    </row>
-    <row r="94" spans="1:22">
+      <c r="V93" s="57"/>
+      <c r="W93" s="58"/>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="57"/>
@@ -4210,12 +4344,13 @@
       <c r="P94" s="57"/>
       <c r="Q94" s="59"/>
       <c r="R94" s="58"/>
-      <c r="S94" s="57"/>
+      <c r="S94" s="58"/>
       <c r="T94" s="57"/>
       <c r="U94" s="57"/>
-      <c r="V94" s="58"/>
-    </row>
-    <row r="95" spans="1:22">
+      <c r="V94" s="57"/>
+      <c r="W94" s="58"/>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="57"/>
@@ -4234,12 +4369,13 @@
       <c r="P95" s="57"/>
       <c r="Q95" s="59"/>
       <c r="R95" s="58"/>
-      <c r="S95" s="57"/>
+      <c r="S95" s="58"/>
       <c r="T95" s="57"/>
       <c r="U95" s="57"/>
-      <c r="V95" s="58"/>
-    </row>
-    <row r="96" spans="1:22">
+      <c r="V95" s="57"/>
+      <c r="W95" s="58"/>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="57"/>
@@ -4258,12 +4394,13 @@
       <c r="P96" s="57"/>
       <c r="Q96" s="59"/>
       <c r="R96" s="58"/>
-      <c r="S96" s="57"/>
+      <c r="S96" s="58"/>
       <c r="T96" s="57"/>
       <c r="U96" s="57"/>
-      <c r="V96" s="58"/>
-    </row>
-    <row r="97" spans="1:22">
+      <c r="V96" s="57"/>
+      <c r="W96" s="58"/>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="57"/>
@@ -4282,12 +4419,13 @@
       <c r="P97" s="57"/>
       <c r="Q97" s="59"/>
       <c r="R97" s="58"/>
-      <c r="S97" s="57"/>
+      <c r="S97" s="58"/>
       <c r="T97" s="57"/>
       <c r="U97" s="57"/>
-      <c r="V97" s="58"/>
-    </row>
-    <row r="98" spans="1:22">
+      <c r="V97" s="57"/>
+      <c r="W97" s="58"/>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
@@ -4306,12 +4444,13 @@
       <c r="P98" s="57"/>
       <c r="Q98" s="59"/>
       <c r="R98" s="58"/>
-      <c r="S98" s="57"/>
+      <c r="S98" s="58"/>
       <c r="T98" s="57"/>
       <c r="U98" s="57"/>
-      <c r="V98" s="58"/>
-    </row>
-    <row r="99" spans="1:22">
+      <c r="V98" s="57"/>
+      <c r="W98" s="58"/>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="57"/>
@@ -4330,12 +4469,13 @@
       <c r="P99" s="57"/>
       <c r="Q99" s="59"/>
       <c r="R99" s="58"/>
-      <c r="S99" s="57"/>
+      <c r="S99" s="58"/>
       <c r="T99" s="57"/>
       <c r="U99" s="57"/>
-      <c r="V99" s="58"/>
-    </row>
-    <row r="100" spans="1:22">
+      <c r="V99" s="57"/>
+      <c r="W99" s="58"/>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="57"/>
@@ -4354,12 +4494,13 @@
       <c r="P100" s="57"/>
       <c r="Q100" s="59"/>
       <c r="R100" s="58"/>
-      <c r="S100" s="57"/>
+      <c r="S100" s="58"/>
       <c r="T100" s="57"/>
       <c r="U100" s="57"/>
-      <c r="V100" s="58"/>
-    </row>
-    <row r="101" spans="1:22">
+      <c r="V100" s="57"/>
+      <c r="W100" s="58"/>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
@@ -4378,12 +4519,13 @@
       <c r="P101" s="57"/>
       <c r="Q101" s="59"/>
       <c r="R101" s="58"/>
-      <c r="S101" s="57"/>
+      <c r="S101" s="58"/>
       <c r="T101" s="57"/>
       <c r="U101" s="57"/>
-      <c r="V101" s="58"/>
-    </row>
-    <row r="102" spans="1:22">
+      <c r="V101" s="57"/>
+      <c r="W101" s="58"/>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="57"/>
@@ -4402,12 +4544,13 @@
       <c r="P102" s="57"/>
       <c r="Q102" s="59"/>
       <c r="R102" s="58"/>
-      <c r="S102" s="57"/>
+      <c r="S102" s="58"/>
       <c r="T102" s="57"/>
       <c r="U102" s="57"/>
-      <c r="V102" s="58"/>
-    </row>
-    <row r="103" spans="1:22">
+      <c r="V102" s="57"/>
+      <c r="W102" s="58"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="57"/>
@@ -4426,12 +4569,13 @@
       <c r="P103" s="57"/>
       <c r="Q103" s="59"/>
       <c r="R103" s="58"/>
-      <c r="S103" s="57"/>
+      <c r="S103" s="58"/>
       <c r="T103" s="57"/>
       <c r="U103" s="57"/>
-      <c r="V103" s="58"/>
-    </row>
-    <row r="104" spans="1:22">
+      <c r="V103" s="57"/>
+      <c r="W103" s="58"/>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
@@ -4450,12 +4594,13 @@
       <c r="P104" s="57"/>
       <c r="Q104" s="59"/>
       <c r="R104" s="58"/>
-      <c r="S104" s="57"/>
+      <c r="S104" s="58"/>
       <c r="T104" s="57"/>
       <c r="U104" s="57"/>
-      <c r="V104" s="58"/>
-    </row>
-    <row r="105" spans="1:22">
+      <c r="V104" s="57"/>
+      <c r="W104" s="58"/>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="57"/>
@@ -4474,12 +4619,13 @@
       <c r="P105" s="57"/>
       <c r="Q105" s="59"/>
       <c r="R105" s="58"/>
-      <c r="S105" s="57"/>
+      <c r="S105" s="58"/>
       <c r="T105" s="57"/>
       <c r="U105" s="57"/>
-      <c r="V105" s="58"/>
-    </row>
-    <row r="106" spans="1:22">
+      <c r="V105" s="57"/>
+      <c r="W105" s="58"/>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="57"/>
@@ -4498,12 +4644,13 @@
       <c r="P106" s="57"/>
       <c r="Q106" s="59"/>
       <c r="R106" s="58"/>
-      <c r="S106" s="57"/>
+      <c r="S106" s="58"/>
       <c r="T106" s="57"/>
       <c r="U106" s="57"/>
-      <c r="V106" s="58"/>
-    </row>
-    <row r="107" spans="1:22">
+      <c r="V106" s="57"/>
+      <c r="W106" s="58"/>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
@@ -4522,12 +4669,13 @@
       <c r="P107" s="57"/>
       <c r="Q107" s="59"/>
       <c r="R107" s="58"/>
-      <c r="S107" s="57"/>
+      <c r="S107" s="58"/>
       <c r="T107" s="57"/>
       <c r="U107" s="57"/>
-      <c r="V107" s="58"/>
-    </row>
-    <row r="108" spans="1:22">
+      <c r="V107" s="57"/>
+      <c r="W107" s="58"/>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="57"/>
@@ -4546,12 +4694,13 @@
       <c r="P108" s="57"/>
       <c r="Q108" s="59"/>
       <c r="R108" s="58"/>
-      <c r="S108" s="57"/>
+      <c r="S108" s="58"/>
       <c r="T108" s="57"/>
       <c r="U108" s="57"/>
-      <c r="V108" s="58"/>
-    </row>
-    <row r="109" spans="1:22">
+      <c r="V108" s="57"/>
+      <c r="W108" s="58"/>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="57"/>
@@ -4570,12 +4719,13 @@
       <c r="P109" s="57"/>
       <c r="Q109" s="59"/>
       <c r="R109" s="58"/>
-      <c r="S109" s="57"/>
+      <c r="S109" s="58"/>
       <c r="T109" s="57"/>
       <c r="U109" s="57"/>
-      <c r="V109" s="58"/>
-    </row>
-    <row r="110" spans="1:22">
+      <c r="V109" s="57"/>
+      <c r="W109" s="58"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
@@ -4594,12 +4744,13 @@
       <c r="P110" s="57"/>
       <c r="Q110" s="59"/>
       <c r="R110" s="58"/>
-      <c r="S110" s="57"/>
+      <c r="S110" s="58"/>
       <c r="T110" s="57"/>
       <c r="U110" s="57"/>
-      <c r="V110" s="58"/>
-    </row>
-    <row r="111" spans="1:22">
+      <c r="V110" s="57"/>
+      <c r="W110" s="58"/>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="57"/>
@@ -4618,12 +4769,13 @@
       <c r="P111" s="57"/>
       <c r="Q111" s="59"/>
       <c r="R111" s="58"/>
-      <c r="S111" s="57"/>
+      <c r="S111" s="58"/>
       <c r="T111" s="57"/>
       <c r="U111" s="57"/>
-      <c r="V111" s="58"/>
-    </row>
-    <row r="112" spans="1:22">
+      <c r="V111" s="57"/>
+      <c r="W111" s="58"/>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
@@ -4642,12 +4794,13 @@
       <c r="P112" s="57"/>
       <c r="Q112" s="59"/>
       <c r="R112" s="58"/>
-      <c r="S112" s="57"/>
+      <c r="S112" s="58"/>
       <c r="T112" s="57"/>
       <c r="U112" s="57"/>
-      <c r="V112" s="58"/>
-    </row>
-    <row r="113" spans="1:22">
+      <c r="V112" s="57"/>
+      <c r="W112" s="58"/>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
@@ -4666,12 +4819,13 @@
       <c r="P113" s="57"/>
       <c r="Q113" s="59"/>
       <c r="R113" s="58"/>
-      <c r="S113" s="57"/>
+      <c r="S113" s="58"/>
       <c r="T113" s="57"/>
       <c r="U113" s="57"/>
-      <c r="V113" s="58"/>
-    </row>
-    <row r="114" spans="1:22">
+      <c r="V113" s="57"/>
+      <c r="W113" s="58"/>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="57"/>
@@ -4690,12 +4844,13 @@
       <c r="P114" s="57"/>
       <c r="Q114" s="59"/>
       <c r="R114" s="58"/>
-      <c r="S114" s="57"/>
+      <c r="S114" s="58"/>
       <c r="T114" s="57"/>
       <c r="U114" s="57"/>
-      <c r="V114" s="58"/>
-    </row>
-    <row r="115" spans="1:22">
+      <c r="V114" s="57"/>
+      <c r="W114" s="58"/>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="57"/>
@@ -4714,12 +4869,13 @@
       <c r="P115" s="57"/>
       <c r="Q115" s="59"/>
       <c r="R115" s="58"/>
-      <c r="S115" s="57"/>
+      <c r="S115" s="58"/>
       <c r="T115" s="57"/>
       <c r="U115" s="57"/>
-      <c r="V115" s="58"/>
-    </row>
-    <row r="116" spans="1:22">
+      <c r="V115" s="57"/>
+      <c r="W115" s="58"/>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
@@ -4738,12 +4894,13 @@
       <c r="P116" s="57"/>
       <c r="Q116" s="59"/>
       <c r="R116" s="58"/>
-      <c r="S116" s="57"/>
+      <c r="S116" s="58"/>
       <c r="T116" s="57"/>
       <c r="U116" s="57"/>
-      <c r="V116" s="58"/>
-    </row>
-    <row r="117" spans="1:22">
+      <c r="V116" s="57"/>
+      <c r="W116" s="58"/>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="57"/>
@@ -4762,12 +4919,13 @@
       <c r="P117" s="57"/>
       <c r="Q117" s="59"/>
       <c r="R117" s="58"/>
-      <c r="S117" s="57"/>
+      <c r="S117" s="58"/>
       <c r="T117" s="57"/>
       <c r="U117" s="57"/>
-      <c r="V117" s="58"/>
-    </row>
-    <row r="118" spans="1:22">
+      <c r="V117" s="57"/>
+      <c r="W117" s="58"/>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
@@ -4786,12 +4944,13 @@
       <c r="P118" s="57"/>
       <c r="Q118" s="59"/>
       <c r="R118" s="58"/>
-      <c r="S118" s="57"/>
+      <c r="S118" s="58"/>
       <c r="T118" s="57"/>
       <c r="U118" s="57"/>
-      <c r="V118" s="58"/>
-    </row>
-    <row r="119" spans="1:22">
+      <c r="V118" s="57"/>
+      <c r="W118" s="58"/>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="57"/>
@@ -4810,12 +4969,13 @@
       <c r="P119" s="57"/>
       <c r="Q119" s="59"/>
       <c r="R119" s="58"/>
-      <c r="S119" s="57"/>
+      <c r="S119" s="58"/>
       <c r="T119" s="57"/>
       <c r="U119" s="57"/>
-      <c r="V119" s="58"/>
-    </row>
-    <row r="120" spans="1:22">
+      <c r="V119" s="57"/>
+      <c r="W119" s="58"/>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="57"/>
@@ -4834,12 +4994,13 @@
       <c r="P120" s="57"/>
       <c r="Q120" s="59"/>
       <c r="R120" s="58"/>
-      <c r="S120" s="57"/>
+      <c r="S120" s="58"/>
       <c r="T120" s="57"/>
       <c r="U120" s="57"/>
-      <c r="V120" s="58"/>
-    </row>
-    <row r="121" spans="1:22">
+      <c r="V120" s="57"/>
+      <c r="W120" s="58"/>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="57"/>
@@ -4858,12 +5019,13 @@
       <c r="P121" s="57"/>
       <c r="Q121" s="59"/>
       <c r="R121" s="58"/>
-      <c r="S121" s="57"/>
+      <c r="S121" s="58"/>
       <c r="T121" s="57"/>
       <c r="U121" s="57"/>
-      <c r="V121" s="58"/>
-    </row>
-    <row r="122" spans="1:22">
+      <c r="V121" s="57"/>
+      <c r="W121" s="58"/>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="57"/>
@@ -4882,12 +5044,13 @@
       <c r="P122" s="57"/>
       <c r="Q122" s="59"/>
       <c r="R122" s="58"/>
-      <c r="S122" s="57"/>
+      <c r="S122" s="58"/>
       <c r="T122" s="57"/>
       <c r="U122" s="57"/>
-      <c r="V122" s="58"/>
-    </row>
-    <row r="123" spans="1:22">
+      <c r="V122" s="57"/>
+      <c r="W122" s="58"/>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="57"/>
@@ -4906,12 +5069,13 @@
       <c r="P123" s="57"/>
       <c r="Q123" s="59"/>
       <c r="R123" s="58"/>
-      <c r="S123" s="57"/>
+      <c r="S123" s="58"/>
       <c r="T123" s="57"/>
       <c r="U123" s="57"/>
-      <c r="V123" s="58"/>
-    </row>
-    <row r="124" spans="1:22">
+      <c r="V123" s="57"/>
+      <c r="W123" s="58"/>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="57"/>
@@ -4930,12 +5094,13 @@
       <c r="P124" s="57"/>
       <c r="Q124" s="59"/>
       <c r="R124" s="58"/>
-      <c r="S124" s="57"/>
+      <c r="S124" s="58"/>
       <c r="T124" s="57"/>
       <c r="U124" s="57"/>
-      <c r="V124" s="58"/>
-    </row>
-    <row r="125" spans="1:22">
+      <c r="V124" s="57"/>
+      <c r="W124" s="58"/>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="57"/>
@@ -4954,12 +5119,13 @@
       <c r="P125" s="57"/>
       <c r="Q125" s="59"/>
       <c r="R125" s="58"/>
-      <c r="S125" s="57"/>
+      <c r="S125" s="58"/>
       <c r="T125" s="57"/>
       <c r="U125" s="57"/>
-      <c r="V125" s="58"/>
-    </row>
-    <row r="126" spans="1:22">
+      <c r="V125" s="57"/>
+      <c r="W125" s="58"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="57"/>
@@ -4978,12 +5144,13 @@
       <c r="P126" s="57"/>
       <c r="Q126" s="59"/>
       <c r="R126" s="58"/>
-      <c r="S126" s="57"/>
+      <c r="S126" s="58"/>
       <c r="T126" s="57"/>
       <c r="U126" s="57"/>
-      <c r="V126" s="58"/>
-    </row>
-    <row r="127" spans="1:22">
+      <c r="V126" s="57"/>
+      <c r="W126" s="58"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="57"/>
@@ -5002,12 +5169,13 @@
       <c r="P127" s="57"/>
       <c r="Q127" s="59"/>
       <c r="R127" s="58"/>
-      <c r="S127" s="57"/>
+      <c r="S127" s="58"/>
       <c r="T127" s="57"/>
       <c r="U127" s="57"/>
-      <c r="V127" s="58"/>
-    </row>
-    <row r="128" spans="1:22">
+      <c r="V127" s="57"/>
+      <c r="W127" s="58"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="57"/>
@@ -5026,12 +5194,13 @@
       <c r="P128" s="57"/>
       <c r="Q128" s="59"/>
       <c r="R128" s="58"/>
-      <c r="S128" s="57"/>
+      <c r="S128" s="58"/>
       <c r="T128" s="57"/>
       <c r="U128" s="57"/>
-      <c r="V128" s="58"/>
-    </row>
-    <row r="129" spans="1:22">
+      <c r="V128" s="57"/>
+      <c r="W128" s="58"/>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="57"/>
@@ -5050,9 +5219,9 @@
       <c r="P129" s="57"/>
       <c r="Q129" s="59"/>
       <c r="R129" s="58"/>
-      <c r="V129" s="58"/>
-    </row>
-    <row r="130" spans="1:22">
+      <c r="W129" s="58"/>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="57"/>
@@ -5071,9 +5240,9 @@
       <c r="P130" s="57"/>
       <c r="Q130" s="59"/>
       <c r="R130" s="58"/>
-      <c r="V130" s="58"/>
-    </row>
-    <row r="131" spans="1:22">
+      <c r="W130" s="58"/>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="57"/>
@@ -5092,9 +5261,9 @@
       <c r="P131" s="57"/>
       <c r="Q131" s="59"/>
       <c r="R131" s="58"/>
-      <c r="V131" s="58"/>
-    </row>
-    <row r="132" spans="1:22">
+      <c r="W131" s="58"/>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="57"/>
@@ -5113,9 +5282,9 @@
       <c r="P132" s="57"/>
       <c r="Q132" s="59"/>
       <c r="R132" s="58"/>
-      <c r="V132" s="58"/>
-    </row>
-    <row r="133" spans="1:22">
+      <c r="W132" s="58"/>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="57"/>
@@ -5134,9 +5303,9 @@
       <c r="P133" s="57"/>
       <c r="Q133" s="59"/>
       <c r="R133" s="58"/>
-      <c r="V133" s="58"/>
-    </row>
-    <row r="134" spans="1:22">
+      <c r="W133" s="58"/>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="57"/>
@@ -5155,9 +5324,9 @@
       <c r="P134" s="57"/>
       <c r="Q134" s="59"/>
       <c r="R134" s="58"/>
-      <c r="V134" s="58"/>
-    </row>
-    <row r="135" spans="1:22">
+      <c r="W134" s="58"/>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="57"/>
@@ -5176,9 +5345,9 @@
       <c r="P135" s="57"/>
       <c r="Q135" s="59"/>
       <c r="R135" s="58"/>
-      <c r="V135" s="58"/>
-    </row>
-    <row r="136" spans="1:22">
+      <c r="W135" s="58"/>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="57"/>
@@ -5197,9 +5366,9 @@
       <c r="P136" s="57"/>
       <c r="Q136" s="59"/>
       <c r="R136" s="58"/>
-      <c r="V136" s="58"/>
-    </row>
-    <row r="137" spans="1:22">
+      <c r="W136" s="58"/>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="57"/>
@@ -5218,9 +5387,9 @@
       <c r="P137" s="57"/>
       <c r="Q137" s="59"/>
       <c r="R137" s="58"/>
-      <c r="V137" s="58"/>
-    </row>
-    <row r="138" spans="1:22">
+      <c r="W137" s="58"/>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="57"/>
@@ -5239,9 +5408,9 @@
       <c r="P138" s="57"/>
       <c r="Q138" s="59"/>
       <c r="R138" s="58"/>
-      <c r="V138" s="58"/>
-    </row>
-    <row r="139" spans="1:22">
+      <c r="W138" s="58"/>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="57"/>
@@ -5260,9 +5429,9 @@
       <c r="P139" s="57"/>
       <c r="Q139" s="59"/>
       <c r="R139" s="58"/>
-      <c r="V139" s="58"/>
-    </row>
-    <row r="140" spans="1:22">
+      <c r="W139" s="58"/>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="57"/>
@@ -5281,9 +5450,9 @@
       <c r="P140" s="57"/>
       <c r="Q140" s="59"/>
       <c r="R140" s="58"/>
-      <c r="V140" s="58"/>
-    </row>
-    <row r="141" spans="1:22">
+      <c r="W140" s="58"/>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="57"/>
@@ -5302,9 +5471,9 @@
       <c r="P141" s="57"/>
       <c r="Q141" s="59"/>
       <c r="R141" s="58"/>
-      <c r="V141" s="58"/>
-    </row>
-    <row r="142" spans="1:22">
+      <c r="W141" s="58"/>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="57"/>
@@ -5323,9 +5492,9 @@
       <c r="P142" s="57"/>
       <c r="Q142" s="59"/>
       <c r="R142" s="58"/>
-      <c r="V142" s="58"/>
-    </row>
-    <row r="143" spans="1:22">
+      <c r="W142" s="58"/>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="57"/>
@@ -5344,9 +5513,9 @@
       <c r="P143" s="57"/>
       <c r="Q143" s="59"/>
       <c r="R143" s="58"/>
-      <c r="V143" s="58"/>
-    </row>
-    <row r="144" spans="1:22">
+      <c r="W143" s="58"/>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="57"/>
@@ -5365,9 +5534,9 @@
       <c r="P144" s="57"/>
       <c r="Q144" s="59"/>
       <c r="R144" s="58"/>
-      <c r="V144" s="58"/>
-    </row>
-    <row r="145" spans="1:22">
+      <c r="W144" s="58"/>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="57"/>
@@ -5386,9 +5555,9 @@
       <c r="P145" s="57"/>
       <c r="Q145" s="59"/>
       <c r="R145" s="58"/>
-      <c r="V145" s="58"/>
-    </row>
-    <row r="146" spans="1:22">
+      <c r="W145" s="58"/>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="57"/>
@@ -5407,9 +5576,9 @@
       <c r="P146" s="57"/>
       <c r="Q146" s="59"/>
       <c r="R146" s="58"/>
-      <c r="V146" s="58"/>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="W146" s="58"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="57"/>
@@ -5428,9 +5597,9 @@
       <c r="P147" s="57"/>
       <c r="Q147" s="59"/>
       <c r="R147" s="58"/>
-      <c r="V147" s="58"/>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="W147" s="58"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="57"/>
@@ -5449,9 +5618,9 @@
       <c r="P148" s="57"/>
       <c r="Q148" s="59"/>
       <c r="R148" s="58"/>
-      <c r="V148" s="58"/>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="W148" s="58"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="57"/>
@@ -5470,9 +5639,9 @@
       <c r="P149" s="57"/>
       <c r="Q149" s="59"/>
       <c r="R149" s="58"/>
-      <c r="V149" s="58"/>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="W149" s="58"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="57"/>
@@ -5491,9 +5660,9 @@
       <c r="P150" s="57"/>
       <c r="Q150" s="59"/>
       <c r="R150" s="58"/>
-      <c r="V150" s="58"/>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="W150" s="58"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="57"/>
@@ -5512,9 +5681,9 @@
       <c r="P151" s="57"/>
       <c r="Q151" s="59"/>
       <c r="R151" s="58"/>
-      <c r="V151" s="58"/>
-    </row>
-    <row r="152" spans="1:22">
+      <c r="W151" s="58"/>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="57"/>
@@ -5533,9 +5702,9 @@
       <c r="P152" s="57"/>
       <c r="Q152" s="59"/>
       <c r="R152" s="58"/>
-      <c r="V152" s="58"/>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="W152" s="58"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="57"/>
@@ -5554,9 +5723,9 @@
       <c r="P153" s="57"/>
       <c r="Q153" s="59"/>
       <c r="R153" s="58"/>
-      <c r="V153" s="58"/>
-    </row>
-    <row r="154" spans="1:22">
+      <c r="W153" s="58"/>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="57"/>
@@ -5575,9 +5744,9 @@
       <c r="P154" s="57"/>
       <c r="Q154" s="59"/>
       <c r="R154" s="58"/>
-      <c r="V154" s="58"/>
-    </row>
-    <row r="155" spans="1:22">
+      <c r="W154" s="58"/>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="57"/>
@@ -5596,9 +5765,9 @@
       <c r="P155" s="57"/>
       <c r="Q155" s="59"/>
       <c r="R155" s="58"/>
-      <c r="V155" s="58"/>
-    </row>
-    <row r="156" spans="1:22">
+      <c r="W155" s="58"/>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="57"/>
@@ -5617,9 +5786,9 @@
       <c r="P156" s="57"/>
       <c r="Q156" s="59"/>
       <c r="R156" s="58"/>
-      <c r="V156" s="58"/>
-    </row>
-    <row r="157" spans="1:22">
+      <c r="W156" s="58"/>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="57"/>
@@ -5638,9 +5807,9 @@
       <c r="P157" s="57"/>
       <c r="Q157" s="59"/>
       <c r="R157" s="58"/>
-      <c r="V157" s="58"/>
-    </row>
-    <row r="158" spans="1:22">
+      <c r="W157" s="58"/>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="57"/>
@@ -5659,9 +5828,9 @@
       <c r="P158" s="57"/>
       <c r="Q158" s="59"/>
       <c r="R158" s="58"/>
-      <c r="V158" s="58"/>
-    </row>
-    <row r="159" spans="1:22">
+      <c r="W158" s="58"/>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="57"/>
@@ -5680,9 +5849,9 @@
       <c r="P159" s="57"/>
       <c r="Q159" s="59"/>
       <c r="R159" s="58"/>
-      <c r="V159" s="58"/>
-    </row>
-    <row r="160" spans="1:22">
+      <c r="W159" s="58"/>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="57"/>
@@ -5701,9 +5870,9 @@
       <c r="P160" s="57"/>
       <c r="Q160" s="59"/>
       <c r="R160" s="58"/>
-      <c r="V160" s="58"/>
-    </row>
-    <row r="161" spans="1:22">
+      <c r="W160" s="58"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="57"/>
@@ -5722,9 +5891,9 @@
       <c r="P161" s="57"/>
       <c r="Q161" s="59"/>
       <c r="R161" s="58"/>
-      <c r="V161" s="58"/>
-    </row>
-    <row r="162" spans="1:22">
+      <c r="W161" s="58"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="57"/>
@@ -5743,9 +5912,9 @@
       <c r="P162" s="57"/>
       <c r="Q162" s="59"/>
       <c r="R162" s="58"/>
-      <c r="V162" s="58"/>
-    </row>
-    <row r="163" spans="1:22">
+      <c r="W162" s="58"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="57"/>
@@ -5764,30 +5933,30 @@
       <c r="P163" s="57"/>
       <c r="Q163" s="59"/>
       <c r="R163" s="58"/>
-      <c r="V163" s="58"/>
+      <c r="W163" s="58"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2:P3 P4:P1048576">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 U1 G2:G3 G4:G1048576 I2:I3 I4:I1048576 U2:U3 U4:U1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4:B1048576">
       <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E3 E4:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2:C3 C4:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E3 E4:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2:R3 R4:R1048576 S4:S1048576">
+      <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2:R3 R4:R1048576">
-      <formula1>"能,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2:G3 G4:G1048576 I2:I3 I4:I1048576 V2:V3 V4:V1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2:P3 P4:P1048576">
+      <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N4:N72">
       <formula1>"高,中,低"</formula1>
@@ -5796,6 +5965,10 @@
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组,TP组"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" display="TP-507"/>
+    <hyperlink ref="S3" r:id="rId1" display="TP-507"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -5833,58 +6006,58 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5917,7 +6090,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5932,37 +6105,37 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:11">
@@ -6121,7 +6294,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6153,43 +6326,43 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6227,7 +6400,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6259,43 +6432,43 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6485,7 @@
   <sheetPr/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="$A4:$XFD58"/>
     </sheetView>
   </sheetViews>
@@ -6333,7 +6506,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6365,43 +6538,43 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6441,7 +6614,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6473,43 +6646,43 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:13">
@@ -6752,28 +6925,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_TP.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_TP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>No</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>renterpc</t>
+  </si>
+  <si>
+    <t>rentertp</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -280,9 +283,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -375,48 +378,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,12 +398,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -446,23 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -475,17 +440,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,7 +471,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -515,8 +479,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,15 +520,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -584,19 +587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,13 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,19 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +701,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,103 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,9 +933,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,26 +966,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,28 +1005,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,172 +1033,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1847,8 +1850,8 @@
   <sheetPr/>
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2069,26 +2072,58 @@
       <c r="X3" s="68"/>
     </row>
     <row r="4" s="44" customFormat="1" ht="16.5" spans="1:24">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
+      <c r="A4" s="49">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="52">
+        <v>42786</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="52">
+        <v>42786</v>
+      </c>
       <c r="K4" s="51"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="M4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="O4" s="51"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="57"/>
+      <c r="P4" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>42786</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="66"/>
       <c r="U4" s="57"/>
       <c r="V4" s="64"/>
       <c r="W4" s="69"/>
@@ -5937,37 +5972,38 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B4 B5:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2:E3 E4:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4 N2:N3 N5:N72">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R4 R2:R3 R5:R1048576 S5:S1048576">
+      <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M5:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C2:C3 C5:C1048576">
+      <formula1>"紧急,不紧急"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E4 E2:E3 E5:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2:C3 C4:C1048576">
-      <formula1>"紧急,不紧急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2:R3 R4:R1048576 S4:S1048576">
-      <formula1>"能,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2:G3 G4:G1048576 I2:I3 I4:I1048576 V2:V3 V4:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G4 I4 V4 G2:G3 G5:G1048576 I2:I3 I5:I1048576 V2:V3 V5:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M4:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2:P3 P4:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P4 P2:P3 P5:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N4:N72">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组,TP组"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="TP-507"/>
     <hyperlink ref="S3" r:id="rId1" display="TP-507"/>
+    <hyperlink ref="S4" r:id="rId1" display="TP-507"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6006,55 +6042,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>37</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>22</v>
@@ -6090,7 +6126,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6105,34 +6141,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>22</v>
@@ -6294,7 +6330,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6326,40 +6362,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6400,7 +6436,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6432,40 +6468,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6506,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6538,40 +6574,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6614,7 +6650,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6646,40 +6682,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>22</v>
@@ -6925,28 +6961,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
